--- a/2025/10/2025-10-25/25_combined_confidence.xlsx
+++ b/2025/10/2025-10-25/25_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,75 +473,217 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Raja Club Athletic  - Olympique Dcheira: 18:00</t>
+          <t>Borussia Mönchengladbach - Bayern Munich : 0:0'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Raja Club Athletic</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Viking FK  - Bryne FK: 15:00</t>
+          <t>Raja Club Athletic  - Olympique Dcheira: 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viking FK</t>
+          <t>Raja Club Athletic</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89</v>
+      </c>
       <c r="F3" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Borussia Dortmund  - 1.FC Köln: 17:30</t>
+          <t>Chelsea FC  - Sunderland AFC: 1:1'</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Chelsea FC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>77</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Inter Club d'Escaldes  - FC Ordino: -:-'</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Inter Club d'Escaldes</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SL Benfica  - FC Arouca: 20:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SL Benfica</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Levski Sofia  - Dobrudzha Dobrich: -:-'</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Levski Sofia</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund  - 1.FC Köln: -:-'</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Borussia Dortmund</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C8" t="n">
         <v>57</v>
       </c>
-      <c r="D4" t="n">
-        <v>95</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D8" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" t="n">
         <v>100</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F8" t="n">
         <v>1.42</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Inter Miami CF ✓ - Nashville SC: 3:1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Inter Miami CF</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Struga Trim &amp; Lum  - AP Brera Strumica: -:-'</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Struga Trim &amp; Lum</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2025/10/2025-10-25/25_combined_confidence.xlsx
+++ b/2025/10/2025-10-25/25_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Borussia Mönchengladbach - Bayern Munich : 0:0'</t>
+          <t>Borussia Mönchengladbach - Bayern Munich ✓: 0:3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,12 +491,16 @@
       <c r="F2" t="n">
         <v>1.28</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raja Club Athletic  - Olympique Dcheira: 18:00</t>
+          <t>Raja Club Athletic ✓ - Olympique Dcheira: 1:0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,12 +520,16 @@
       <c r="F3" t="n">
         <v>1.67</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chelsea FC  - Sunderland AFC: 1:1'</t>
+          <t>Chelsea FC X - Sunderland AFC: 1:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -530,7 +538,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -539,12 +547,16 @@
       <c r="F4" t="n">
         <v>1.45</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Inter Club d'Escaldes  - FC Ordino: -:-'</t>
+          <t>Inter Club d'Escaldes ✓ - FC Ordino: 2:1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,12 +574,16 @@
       <c r="F5" t="n">
         <v>2.5</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SL Benfica  - FC Arouca: 20:30</t>
+          <t>SL Benfica ✓ - FC Arouca: 5:0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -576,7 +592,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
@@ -585,12 +601,16 @@
       <c r="F6" t="n">
         <v>1.18</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Levski Sofia  - Dobrudzha Dobrich: -:-'</t>
+          <t>Levski Sofia ✓ - Dobrudzha Dobrich: 3:0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -608,12 +628,16 @@
       <c r="F7" t="n">
         <v>1.18</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Borussia Dortmund  - 1.FC Köln: -:-'</t>
+          <t>Borussia Dortmund ✓ - 1.FC Köln: 1:0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -633,28 +657,32 @@
       <c r="F8" t="n">
         <v>1.42</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Inter Miami CF ✓ - Nashville SC: 3:1</t>
+          <t>Trabzonspor ✓ - Eyüpspor: 2:0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inter Miami CF</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>56</v>
       </c>
       <c r="D9" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -665,25 +693,56 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Struga Trim &amp; Lum  - AP Brera Strumica: -:-'</t>
+          <t>Inter Miami CF ✓ - Nashville SC: 3:1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Inter Miami CF</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>56</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Struga Trim &amp; Lum X - AP Brera Strumica: 2:4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Struga Trim &amp; Lum</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>53</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
         <v>94</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>1.83</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
